--- a/input_excel/cau hoi mau-thong tin dien tu.xlsx
+++ b/input_excel/cau hoi mau-thong tin dien tu.xlsx
@@ -18,18 +18,15 @@
     <t>thông tin chung của quá trình cấp giấy phép thiết lâp trang thông tin điện tử tổng hợp</t>
   </si>
   <si>
+    <t>thông tin chung của quá trình thông báo thay đổi cơ cấu tổ chức của doanh nghiệp cung cấp trò chơi điện tử G1 trên mạng do chia tách hợp nhất sáp nhập chuyển đổi công ty theo quy định của pháp luật về doanh nghiệp thay đổi phần vốn góp dẫn đến thay đổi thành viên góp vốn (hoặc cổ đông) có phần vốn góp từ 30% vốn điều lệ trở lên</t>
+  </si>
+  <si>
     <t>thông tin chung của quá trình đăng ký thu tín hiệu truyền hình nước ngoài trực tiếp từ vệ tinh</t>
-  </si>
-  <si>
-    <t>thông tin chung của quá trình thông báo thay đổi cơ cấu tổ chức của doanh nghiệp cung cấp trò chơi điện tử G1 trên mạng do chia tách hợp nhất sáp nhập chuyển đổi công ty theo quy định của pháp luật về doanh nghiệp thay đổi phần vốn góp dẫn đến thay đổi thành viên góp vốn (hoặc cổ đông) có phần vốn góp từ 30% vốn điều lệ trở lên</t>
   </si>
   <si>
     <t xml:space="preserve">    • Tổ chức, doanh nghiệp đề nghị cấp giấy phép thiết lập trang thông tin điện tử tổng hợp gửi hồ sơ đề nghị tới Sở Thông tin và Truyền thông.
     • Trong thời hạn 10 (mười) ngày làm việc kể từ ngày nhận được hồ sơ hợp lệ, Sở Thông tin và Truyền thông xem xét cấp giấy phép thiết lập trang thông tin điện tử tổng hợp. Trường hợp từ chối, Sở Thông tin và Truyền thông có văn bản trả lời nêu rõ lý do.
     • Trong thời hạn 05 (năm) ngày làm việc kể từ khi nhận được hồ sơ hợp lệ của các cơ quan báo chí địa phương, Sở Thông tin và Truyền thông các tỉnh, thành phố có trách nhiệm thẩm định và chuyển hồ sơ kèm theo văn bản đề nghị cấp giấy phép đến Cục Phát thanh, truyền hình và Thông tin điện tử xem xét cấp phép theo quy định của pháp luật. Trường hợp hồ sơ không hợp lệ, Sở Thông tin và Truyền thông có văn bản trả lời nêu rõ lý do.</t>
-  </si>
-  <si>
-    <t>điều kiện cấp giấy phép thiết lập trang thông tin điện tử tổng hợp</t>
   </si>
   <si>
     <t>1. Các đối tượng sau đây phải thực hiện đăng ký thu tín hiệu truyền hình nước ngoài trực tiếp từ vệ tinh với Sở Thông tin và Truyền thông tại địa phương nơi thiết lập hệ thống thiết bị thu tín hiệu:
@@ -43,6 +40,9 @@
 2. Sở Thông tin và Truyền thông tỉnh, thành phố trực thuộc Trung ương có trách nhiệm quản lý và xét cấp đăng ký thu tín hiệu truyền hình nước ngoài trực tiếp từ vệ tinh trên địa bàn được giao quản lý.
 3. Trong thời hạn 15 (mười lăm) ngày làm việc kể từ ngày nhận được hồ sơ hợp lệ, Sở Thông tin và Truyền thông tỉnh, thành phố trực thuộc Trung ương có trách nhiệm xét cấp đăng ký thu tín hiệu truyền hình nước ngoài trực tiếp từ vệ tinh. Trường hợp không cấp đăng ký, Sở Thông tin và Truyền thông có văn bản trả lời nêu rõ lý do.
 4. Giấy chứng nhận đăng ký thu tín hiệu truyền hình nước ngoài trực tiếp từ vệ tinh có hiệu lực tối đa 05 (năm) năm kể từ ngày cấp nhưng không vượt quá thời hạn có hiệu lực ghi trong Giấy phép thành lập, Giấy chứng nhận đăng ký doanh nghiệp, Giấy chứng nhận đăng ký đầu tư, Thẻ thường trú, Giấy phép cung cấp dịch vụ phát thanh, truyền hình trả tiền.</t>
+  </si>
+  <si>
+    <t>điều kiện cấp giấy phép thiết lập trang thông tin điện tử tổng hợp</t>
   </si>
   <si>
     <t>đối tượng phải đăng ký thu tín hiệu truyền hình nước ngoài trực tiếp từ vệ tinh</t>
@@ -87,10 +87,10 @@
     <t>hiệu lực của giấy chứng nhận đăng ký thu tín hiệu truyền hình nước ngoài trực tiếp từ vệ tinh</t>
   </si>
   <si>
+    <t>hiệu lực của giấy chứng nhận thiết lập trang thông tin điện tử tổng hợp</t>
+  </si>
+  <si>
     <t>Giấy chứng nhận đăng ký thu tín hiệu truyền hình nước ngoài trực tiếp từ vệ tinh có hiệu lực tối đa 05 (năm) năm kể từ ngày cấp nhưng không vượt quá thời hạn có hiệu lực ghi trong Giấy phép thành lập, Giấy chứng nhận đăng ký doanh nghiệp, Giấy chứng nhận đăng ký đầu tư, Thẻ thường trú, Giấy phép cung cấp dịch vụ phát thanh, truyền hình trả tiền.</t>
-  </si>
-  <si>
-    <t>hiệu lực của giấy chứng nhận thiết lập trang thông tin điện tử tổng hợp</t>
   </si>
   <si>
     <t>Giấy chứng nhận thiết lập trang thông tin điện tử có hiệu lực ghi trong Giấy phép thành lập, Giấy chứng nhận đăng ký doanh nghiệp, Giấy chứng nhận đăng ký đầu tư, Thẻ thường trú, Giấy phép cung cấp dịch vụ phát thanh, truyền hình trả tiền.</t>
@@ -102,6 +102,16 @@
   </si>
   <si>
     <t>điều kiện thông báo thay đổi cơ cấu tổ chức của doanh nghiệp cung cấp trò chơi điện tử G1 trên mạng do chia tách hợp nhất sáp nhập chuyển đổi công ty theo quy định của pháp luật về doanh nghiệp thay đổi phần vốn góp dẫn đến thay đổi thành viên góp vốn (hoặc cổ đông) có phần vốn góp từ 30% vốn điều lệ trở lên</t>
+  </si>
+  <si>
+    <t>cách thức đăng ký thu tín hiệu truyền hình nước ngoài trực tiếp từ vệ tinh</t>
+  </si>
+  <si>
+    <t>- Trực tiếp tại Sở Thông tin và Truyền thông sở tại;
+- Tải biểu mẫu qua mạng Internet, điền đầy đủ thông tin và gửi về sở TTT theo đường bưu điện</t>
+  </si>
+  <si>
+    <t>hồ sơ đăng ký thu tín hiệu truyền hình nước ngoài trực tiếp từ vệ tinh</t>
   </si>
   <si>
     <t>cách thức đăng ký cấp giấy phép thiết lập trang thông tin điện tử tổng hợp</t>
@@ -113,7 +123,27 @@
 </t>
   </si>
   <si>
+    <t>1. Hồ sơ cấp đăng ký thu tín hiệu truyền hình nước ngoài trực tiếp từ vệ tinh được quy định như sau:
+a) Tờ khai đăng ký thu tín hiệu truyền hình nước ngoài trực tiếp từ vệ tinh (Mẫu số 07/DVTHTT ban hành kèm theo Thông tư số 19/2016/TT-BTTTT ngày 30/6/2016 của Bộ trưởng Bộ Thông tin và Truyền thông)
+b) Bản sao có chứng thực hoặc bản sao kèm bản gốc để đối chiếu các loại giấy tờ sau: Giấy phép thành lập hoặc văn bản pháp lý tương đương đối với các tổ chức quy định tại Khoản 2 Điều 29 Nghị định này; Giấy chứng nhận đăng ký doanh nghiệp, Giấy chứng nhận đăng ký đầu tư (nếu có) đối với tổ chức, Thẻ thường trú hoặc giấy tờ pháp lý tương đương đối với hộ gia đình, cá nhân người nước ngoài quy định tại Khoản 3 Điều 29 Nghị định này; văn bản đăng ký hoạt động của khách sạn quy định tại Điểm b Khoản 4 Điều 29 Nghị định này; Giấy phép cung cấp dịch vụ phát thanh, truyền hình trả tiền đối với doanh nghiệp quy định tại Khoản 6 Điều 29 Nghị định này;
+c) Bản sao có chứng thực hoặc bản sao kèm bản gốc để đối chiếu văn bản thuê, mượn địa điểm lắp đặt thiết bị trong trường hợp thiết bị không được lắp đặt tại địa điểm ghi trong Giấy phép thành lập, Giấy chứng nhận đăng ký đầu tư, Giấy chứng nhận đăng ký doanh nghiệp, Thẻ thường trú, Giấy phép cung cấp dịch vụ phát thanh, truyền hình trả tiền;
+2. Số lượng hồ sơ:  01 bộ</t>
+  </si>
+  <si>
     <t>hồ sơ đăng ký cấp giấy phép thiết lập trang thông tin điện tử tổng hợp</t>
+  </si>
+  <si>
+    <t>thành phần hồ sơ đăng ký thu tín hiệu truyền hình nước ngoài trực tiếp từ vệ tinh</t>
+  </si>
+  <si>
+    <t>1. Hồ sơ cấp đăng ký thu tín hiệu truyền hình nước ngoài trực tiếp từ vệ tinh được quy định như sau:
+a) Tờ khai đăng ký theo mẫu do Bộ Thông tin và Truyền thông quy định;
+b) Bản sao có chứng thực hoặc bản sao kèm bản gốc để đối chiếu các loại giấy tờ sau: Giấy phép thành lập hoặc văn bản pháp lý tương đương đối với các tổ chức quy định tại Khoản 2 Điều 29 Nghị định này; Giấy chứng nhận đăng ký doanh nghiệp, Giấy chứng nhận đăng ký đầu tư (nếu có) đối với tổ chức, Thẻ thường trú hoặc giấy tờ pháp lý tương đương đối với hộ gia đình, cá nhân người nước ngoài quy định tại Khoản 3 Điều 29 Nghị định này; văn bản đăng ký hoạt động của khách sạn quy định tại Điểm b Khoản 4 Điều 29 Nghị định này; Giấy phép cung cấp dịch vụ phát thanh, truyền hình trả tiền đối với doanh nghiệp quy định tại Khoản 6 Điều 29 Nghị định này;
+c) Bản sao có chứng thực hoặc bản sao kèm bản gốc để đối chiếu văn bản thuê, mượn địa điểm lắp đặt thiết bị trong trường hợp thiết bị không được lắp đặt tại địa điểm ghi trong Giấy phép thành lập, Giấy chứng nhận đăng ký đầu tư, Giấy chứng nhận đăng ký doanh nghiệp, Thẻ thường trú, Giấy phép cung cấp dịch vụ phát thanh, truyền hình trả tiền;
+2. Số lượng hồ sơ:  01 bộ</t>
+  </si>
+  <si>
+    <t>thời gian giải quyết hồ sơ đăng ký thu tín hiệu truyền hình nước ngoài trực tiếp từ vệ tinh</t>
   </si>
   <si>
     <t>1. Hồ sơ đề nghị cấp giấy phép thiết lập trang thông tin điện tử tổng hợp bao gồm:
@@ -125,6 +155,9 @@
 2. Số lượng hồ sơ: 01 bộ.</t>
   </si>
   <si>
+    <t>15 (mười lăm) ngày làm việc kể từ ngày nhận được hồ sơ hợp lệ</t>
+  </si>
+  <si>
     <t>thành phần hồ sơ đăng ký cấp giấy phép thiết lập trang thông tin điện tử tổng hợp</t>
   </si>
   <si>
@@ -132,6 +165,12 @@
   </si>
   <si>
     <t>hồ sơ thông báo thay đổi cơ cấu tổ chức của doanh nghiệp cung cấp trò chơi điện tử G1 trên mạng do chia tách hợp nhất sáp nhập chuyển đổi công ty theo quy định của pháp luật về doanh nghiệp thay đổi phần vốn góp dẫn đến thay đổi thành viên góp vốn (hoặc cổ đông) có phần vốn góp từ 30% vốn điều lệ trở lên</t>
+  </si>
+  <si>
+    <t>thời gian giải quyết hồ sơ đăng ký cấp giấy phép thiết lập trang thông tin điện tử tổng hợp</t>
+  </si>
+  <si>
+    <t>10 (mười) ngày làm việc kể từ ngày nhận được hồ sơ hợp lệ</t>
   </si>
   <si>
     <t>1.Hồ sơ thông báo thay đổi cơ cấu tổ chức của doanh nghiệp cung cấp trò chơi điện tử G1 trên mạng do chia tách, hợp nhất, sáp nhập, chuyển đổi công ty theo quy định của pháp luật về doanh nghiệp; thay đổi phần vốn góp dẫn đến thay đổi thành viên góp vốn (hoặc cổ đông) có phần vốn góp từ 30% vốn điều lệ trở lên của doanh nghiệp cung cấp dịch vụ trò chơi điện tử G1 bao gồm:
@@ -139,67 +178,57 @@
 2. Số lượng hồ sơ: 01 bộ</t>
   </si>
   <si>
-    <t>thời gian giải quyết hồ sơ đăng ký cấp giấy phép thiết lập trang thông tin điện tử tổng hợp</t>
-  </si>
-  <si>
-    <t>10 (mười) ngày làm việc kể từ ngày nhận được hồ sơ hợp lệ</t>
+    <t>cơ quan giải quyết hồ sơ đăng ký cấp giấy phép thiết lập trang thông tin điện tử tổng hợp</t>
+  </si>
+  <si>
+    <t>Sở TTT địa phương</t>
+  </si>
+  <si>
+    <t>cơ quan giải quyết hồ sơ đăng ký thu tín hiệu truyền hình nước ngoài trực tiếp từ vệ tinh</t>
   </si>
   <si>
     <t>thành phần hồ sơ thông báo thay đổi cơ cấu tổ chức của doanh nghiệp cung cấp trò chơi điện tử G1 trên mạng do chia tách hợp nhất sáp nhập chuyển đổi công ty theo quy định của pháp luật về doanh nghiệp thay đổi phần vốn góp dẫn đến thay đổi thành viên góp vốn (hoặc cổ đông) có phần vốn góp từ 30% vốn điều lệ trở lên</t>
   </si>
   <si>
-    <t>cơ quan giải quyết hồ sơ đăng ký cấp giấy phép thiết lập trang thông tin điện tử tổng hợp</t>
-  </si>
-  <si>
-    <t>Sở TTT địa phương</t>
-  </si>
-  <si>
-    <t>thời gian giải quyết thông báo thay đổi cơ cấu tổ chức của doanh nghiệp cung cấp trò chơi điện tử G1 trên mạng do chia tách hợp nhất sáp nhập chuyển đổi công ty theo quy định của pháp luật về doanh nghiệp thay đổi phần vốn góp dẫn đến thay đổi thành viên góp vốn (hoặc cổ đông) có phần vốn góp từ 30% vốn điều lệ trở lên</t>
-  </si>
-  <si>
     <t>kết quả giải quyết hồ sơ đăng ký cấp giấy phép thiết lập trang thông tin điện tử tổng hợp</t>
   </si>
   <si>
-    <t>07 (bảy) ngày làm việc kể từ ngày nhận được hồ sơ hợp lệ</t>
-  </si>
-  <si>
     <t xml:space="preserve">Giấy phép </t>
   </si>
   <si>
-    <t>cách thức đăng ký thu tín hiệu truyền hình nước ngoài trực tiếp từ vệ tinh</t>
-  </si>
-  <si>
-    <t>cơ quan giải quyết thông báo thay đổi cơ cấu tổ chức của doanh nghiệp cung cấp trò chơi điện tử G1 trên mạng do chia tách hợp nhất sáp nhập chuyển đổi công ty theo quy định của pháp luật về doanh nghiệp thay đổi phần vốn góp dẫn đến thay đổi thành viên góp vốn (hoặc cổ đông) có phần vốn góp từ 30% vốn điều lệ trở lên</t>
+    <t>kết quả giải quyết hồ sơ đăng ký thu tín hiệu truyền hình nước ngoài trực tiếp từ vệ tinh</t>
   </si>
   <si>
     <t>căn cứ pháp lý của việc đăng ký cấp giấy phép thiết lập trang thông tin điện tử tổng hợp</t>
   </si>
   <si>
-    <t>- Trực tiếp tại Sở Thông tin và Truyền thông sở tại;
-- Tải biểu mẫu qua mạng Internet, điền đầy đủ thông tin và gửi về sở TTT theo đường bưu điện</t>
+    <t>Giấy chứng nhận đăng ký thu tín hiệu truyền hình nước ngoài trực tiếp từ vệ tinh</t>
   </si>
   <si>
     <t>- Nghị định số 72/2013/NĐ-CP ngày 15/7/2013 của Chính phủ về quản lý, cung cấp, sử dụng dịch vụ Internet và thông tin trên mạng;
 - Nghị định số 27/2018/NĐ-CP ngày 01/3/2018 của Chính phủ sửa đổi, bổ sung một số điều của Nghị định số 72/2013/NĐ-CP ngày 15 tháng 7 năm 2013 của Chính phủ về quản lý, cung cấp, sử dụng dịch vụ Internet và thông tin trên mạng.</t>
   </si>
   <si>
-    <t>hồ sơ đăng ký thu tín hiệu truyền hình nước ngoài trực tiếp từ vệ tinh</t>
-  </si>
-  <si>
-    <t>kết quả giải quyết thông báo thay đổi cơ cấu tổ chức của doanh nghiệp cung cấp trò chơi điện tử G1 trên mạng do chia tách hợp nhất sáp nhập chuyển đổi công ty theo quy định của pháp luật về doanh nghiệp thay đổi phần vốn góp dẫn đến thay đổi thành viên góp vốn (hoặc cổ đông) có phần vốn góp từ 30% vốn điều lệ trở lên</t>
+    <t>thời gian giải quyết thông báo thay đổi cơ cấu tổ chức của doanh nghiệp cung cấp trò chơi điện tử G1 trên mạng do chia tách hợp nhất sáp nhập chuyển đổi công ty theo quy định của pháp luật về doanh nghiệp thay đổi phần vốn góp dẫn đến thay đổi thành viên góp vốn (hoặc cổ đông) có phần vốn góp từ 30% vốn điều lệ trở lên</t>
+  </si>
+  <si>
+    <t>căn cứ pháp lý của việc đăng ký thu tín hiệu truyền hình nước ngoài trực tiếp từ vệ tinh</t>
+  </si>
+  <si>
+    <t>07 (bảy) ngày làm việc kể từ ngày nhận được hồ sơ hợp lệ</t>
   </si>
   <si>
     <t>quy trình đăng ký cấp giấy phép thiết lập trang thông tin điện tử tổng hợp</t>
   </si>
   <si>
-    <t>1. Hồ sơ cấp đăng ký thu tín hiệu truyền hình nước ngoài trực tiếp từ vệ tinh được quy định như sau:
-a) Tờ khai đăng ký thu tín hiệu truyền hình nước ngoài trực tiếp từ vệ tinh (Mẫu số 07/DVTHTT ban hành kèm theo Thông tư số 19/2016/TT-BTTTT ngày 30/6/2016 của Bộ trưởng Bộ Thông tin và Truyền thông)
-b) Bản sao có chứng thực hoặc bản sao kèm bản gốc để đối chiếu các loại giấy tờ sau: Giấy phép thành lập hoặc văn bản pháp lý tương đương đối với các tổ chức quy định tại Khoản 2 Điều 29 Nghị định này; Giấy chứng nhận đăng ký doanh nghiệp, Giấy chứng nhận đăng ký đầu tư (nếu có) đối với tổ chức, Thẻ thường trú hoặc giấy tờ pháp lý tương đương đối với hộ gia đình, cá nhân người nước ngoài quy định tại Khoản 3 Điều 29 Nghị định này; văn bản đăng ký hoạt động của khách sạn quy định tại Điểm b Khoản 4 Điều 29 Nghị định này; Giấy phép cung cấp dịch vụ phát thanh, truyền hình trả tiền đối với doanh nghiệp quy định tại Khoản 6 Điều 29 Nghị định này;
-c) Bản sao có chứng thực hoặc bản sao kèm bản gốc để đối chiếu văn bản thuê, mượn địa điểm lắp đặt thiết bị trong trường hợp thiết bị không được lắp đặt tại địa điểm ghi trong Giấy phép thành lập, Giấy chứng nhận đăng ký đầu tư, Giấy chứng nhận đăng ký doanh nghiệp, Thẻ thường trú, Giấy phép cung cấp dịch vụ phát thanh, truyền hình trả tiền;
-2. Số lượng hồ sơ:  01 bộ</t>
-  </si>
-  <si>
-    <t>căn cứ pháp lý của việc thông báo thay đổi cơ cấu tổ chức của doanh nghiệp cung cấp trò chơi điện tử G1 trên mạng do chia tách hợp nhất sáp nhập chuyển đổi công ty theo quy định của pháp luật về doanh nghiệp thay đổi phần vốn góp dẫn đến thay đổi thành viên góp vốn (hoặc cổ đông) có phần vốn góp từ 30% vốn điều lệ trở lên</t>
+    <t>- Nghị định số 06/2016/NĐ-CP ngày 18 tháng 01 năm 2016 của Chính phủ quy định quản lý, cung cấp và sử dụng dịch vụ phát thanh, truyền hình;
+- Thông tư số 19/2016/TT-BTTTT ngày 30 tháng 6 năm 2016 cùa Bộ Thông tin và Truyền thông quy định các biểu mẫu Tờ khai đăng ký, Đơn đề nghị cấp Giấy phép, Giấy Chứng nhận, Giấy phép và Báo cáo nghiệp vụ theo quy định tại Nghị định số 06/2016/NĐ-CP ngày 30/6/2016.</t>
+  </si>
+  <si>
+    <t>cơ quan giải quyết thông báo thay đổi cơ cấu tổ chức của doanh nghiệp cung cấp trò chơi điện tử G1 trên mạng do chia tách hợp nhất sáp nhập chuyển đổi công ty theo quy định của pháp luật về doanh nghiệp thay đổi phần vốn góp dẫn đến thay đổi thành viên góp vốn (hoặc cổ đông) có phần vốn góp từ 30% vốn điều lệ trở lên</t>
+  </si>
+  <si>
+    <t>quy trình đăng ký thu tín hiệu truyền hình nước ngoài trực tiếp từ vệ tinh</t>
   </si>
   <si>
     <t xml:space="preserve">1. Bộ phận tiếp nhận và trả kết quả:
@@ -226,9 +255,6 @@
 </t>
   </si>
   <si>
-    <t>thành phần hồ sơ đăng ký thu tín hiệu truyền hình nước ngoài trực tiếp từ vệ tinh</t>
-  </si>
-  <si>
     <t>thời gian lưu hồ sơ đăng ký cấp giấy phép thiết lập trang thông tin điện tử tổng hợp</t>
   </si>
   <si>
@@ -238,17 +264,64 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">1. Bộ phận tiếp nhận và trả kết quả:
+    • Xem xét thành phần hồ sơ: (0.5 ngày)
++ Trường hợp hồ sơ đầy đủ, hợp lệ thì viết giấy biên nhận hồ sơ và hẹn ngày trả kết quả.
++ Trường hợp hồ sơ thiếu hoặc không hợp lệ thì viết phiếu hướng dẫn làm lại hồ sơ.
+    • Điền vào phần mềm 1 cửa điện tử và chuyển hồ sơ đến Phòng Thông tin - Báo chí - Xuất bản.
+    • Ghi nhận vào Sổ tiếp nhận và trả kết quả và chuyển hô sơ cho phòng TTBCXB
+2. Chuyên viên phòng (08 ngày)
+    • Thẩm định tính pháp lý hồ sơ.
+    • Dự thảo văn bản trả lời trong trường hợp không đủ điều kiện cấp phép.
+    • Dự thảo giấy phép, cho số và vào sổ theo dõi cấp phép.
+3. Lãnh đạo phòng (04 ngày)
+    • Xem xét tính pháp lý hồ sơ
+    • Ký tắt giấy phép hoặc văn bản trả lời
+    • Chuyển hồ sơ đến lãnh đạo Sở
+4. Lãnh đạo sở (02 ngày)
+Xem xét, ký giấy phép hoặc ký văn bản trả lời 
+5. Văn thư văn phòng sở (0.5 ngày)
+Đóng dấu và chuyển đến Bộ phận tiếp nhận và trả kết quả
+6. Bộ phận tiếp nhận và trả kết quả 
+    • Trả kết quả cho cơ quan, tổ chức; yêu cầu người nhận ký tên vào sổ tiếp nhận và trả kết quả.
+    • Chuyển hồ sơ về Phòng TTBCXB lưu. 
+</t>
+  </si>
+  <si>
+    <t>kết quả giải quyết thông báo thay đổi cơ cấu tổ chức của doanh nghiệp cung cấp trò chơi điện tử G1 trên mạng do chia tách hợp nhất sáp nhập chuyển đổi công ty theo quy định của pháp luật về doanh nghiệp thay đổi phần vốn góp dẫn đến thay đổi thành viên góp vốn (hoặc cổ đông) có phần vốn góp từ 30% vốn điều lệ trở lên</t>
+  </si>
+  <si>
+    <t>lệ phí đăng ký cấp giấy phép thiết lập trang thông tin điện tử tổng hợp</t>
+  </si>
+  <si>
+    <t>thời gian lưu hồ sơ đăng ký thu tín hiệu truyền hình nước ngoài trực tiếp từ vệ tinh</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> lệ phí đăng ký cấp giấy phép trang thông tin điện tử tổng hợp tuân theo quy định của bộ tài chính nếu có</t>
+  </si>
+  <si>
+    <t>căn cứ pháp lý của việc thông báo thay đổi cơ cấu tổ chức của doanh nghiệp cung cấp trò chơi điện tử G1 trên mạng do chia tách hợp nhất sáp nhập chuyển đổi công ty theo quy định của pháp luật về doanh nghiệp thay đổi phần vốn góp dẫn đến thay đổi thành viên góp vốn (hoặc cổ đông) có phần vốn góp từ 30% vốn điều lệ trở lên</t>
+  </si>
+  <si>
+    <t>thông tin chung của quá trình sửa đổi bổ sung giấy phép thiết lâp trang thông tin điện tử tổng hợp</t>
+  </si>
+  <si>
+    <t>lê phí đăng ký thu tín hiệu truyền hình nước ngoài trực tiếp từ vệ tinh</t>
+  </si>
+  <si>
+    <t>lê phí đăng ký thu tín hiệu truyền hình nước ngoài trực tiếp từ vệ tinh tiến hành thu theo quy định của Bộ tài chính nếu có</t>
+  </si>
+  <si>
     <t>quy trình thông báo thay đổi cơ cấu tổ chức của doanh nghiệp cung cấp trò chơi điện tử G1 trên mạng do chia tách hợp nhất sáp nhập chuyển đổi công ty theo quy định của pháp luật về doanh nghiệp thay đổi phần vốn góp dẫn đến thay đổi thành viên góp vốn (hoặc cổ đông) có phần vốn góp từ 30% vốn điều lệ trở lên</t>
   </si>
   <si>
-    <t>1. Hồ sơ cấp đăng ký thu tín hiệu truyền hình nước ngoài trực tiếp từ vệ tinh được quy định như sau:
-a) Tờ khai đăng ký theo mẫu do Bộ Thông tin và Truyền thông quy định;
-b) Bản sao có chứng thực hoặc bản sao kèm bản gốc để đối chiếu các loại giấy tờ sau: Giấy phép thành lập hoặc văn bản pháp lý tương đương đối với các tổ chức quy định tại Khoản 2 Điều 29 Nghị định này; Giấy chứng nhận đăng ký doanh nghiệp, Giấy chứng nhận đăng ký đầu tư (nếu có) đối với tổ chức, Thẻ thường trú hoặc giấy tờ pháp lý tương đương đối với hộ gia đình, cá nhân người nước ngoài quy định tại Khoản 3 Điều 29 Nghị định này; văn bản đăng ký hoạt động của khách sạn quy định tại Điểm b Khoản 4 Điều 29 Nghị định này; Giấy phép cung cấp dịch vụ phát thanh, truyền hình trả tiền đối với doanh nghiệp quy định tại Khoản 6 Điều 29 Nghị định này;
-c) Bản sao có chứng thực hoặc bản sao kèm bản gốc để đối chiếu văn bản thuê, mượn địa điểm lắp đặt thiết bị trong trường hợp thiết bị không được lắp đặt tại địa điểm ghi trong Giấy phép thành lập, Giấy chứng nhận đăng ký đầu tư, Giấy chứng nhận đăng ký doanh nghiệp, Thẻ thường trú, Giấy phép cung cấp dịch vụ phát thanh, truyền hình trả tiền;
-2. Số lượng hồ sơ:  01 bộ</t>
-  </si>
-  <si>
-    <t>lệ phí đăng ký cấp giấy phép thiết lập trang thông tin điện tử tổng hợp</t>
+    <t>1. Tổ chức, doanh nghiệp có giấy phép thiết lập trang thông tin điện tử tổng hợp phải làm thủ tục sửa đổi, bổ sung giấy phép trong những trường hợp sau:
+    • Thay đổi tên của tổ chức, doanh nghiệp;
+    • Thay đổi địa điểm đặt máy chủ tại Việt Nam;
+    • Thay đổi nhân sự chịu trách nhiệm;
+    • Thay đổi, bổ sung nội dung thông tin, phạm vi cung cấp cung cấp thông tin (tên miền khi cung cấp trên trang thông tin điện tử, hệ thống phân phối ứng dụng khi cấp cho các thiết bị di động).
+2. Tổ chức, doanh nghiệp gửi hồ sơ đề nghị đến cơ quan cấp giấy phép.
+Trong thời hạn 10 ngày làm việc, kể từ ngày nhận được hồ sơ hợp lệ, Sở Thông tin và Truyền thông thẩm định, cấp sửa đổi, bổ sung giấy phép đã cấp. Trường hợp từ chối có văn bản trả lời nêu rõ lý do.</t>
   </si>
   <si>
     <t xml:space="preserve">1. Bộ phận tiếp nhận và trả kết quả:
@@ -275,114 +348,45 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> lệ phí đăng ký cấp giấy phép trang thông tin điện tử tổng hợp tuân theo quy định của bộ tài chính nếu có</t>
-  </si>
-  <si>
-    <t>thời gian giải quyết hồ sơ đăng ký thu tín hiệu truyền hình nước ngoài trực tiếp từ vệ tinh</t>
+    <t>điều kiện sửa đổi bổ sung giấy phép thiết lập trang thông tin điện tử tổng hợp</t>
   </si>
   <si>
     <t>thời gian lưu hồ sơ thông báo thay đổi cơ cấu tổ chức của doanh nghiệp cung cấp trò chơi điện tử G1 trên mạng do chia tách hợp nhất sáp nhập chuyển đổi công ty theo quy định của pháp luật về doanh nghiệp thay đổi phần vốn góp dẫn đến thay đổi thành viên góp vốn (hoặc cổ đông) có phần vốn góp từ 30% vốn điều lệ trở lên</t>
   </si>
   <si>
-    <t>15 (mười lăm) ngày làm việc kể từ ngày nhận được hồ sơ hợp lệ</t>
-  </si>
-  <si>
-    <t>thông tin chung của quá trình sửa đổi bổ sung giấy phép thiết lâp trang thông tin điện tử tổng hợp</t>
-  </si>
-  <si>
-    <t>1. Tổ chức, doanh nghiệp có giấy phép thiết lập trang thông tin điện tử tổng hợp phải làm thủ tục sửa đổi, bổ sung giấy phép trong những trường hợp sau:
-    • Thay đổi tên của tổ chức, doanh nghiệp;
-    • Thay đổi địa điểm đặt máy chủ tại Việt Nam;
-    • Thay đổi nhân sự chịu trách nhiệm;
-    • Thay đổi, bổ sung nội dung thông tin, phạm vi cung cấp cung cấp thông tin (tên miền khi cung cấp trên trang thông tin điện tử, hệ thống phân phối ứng dụng khi cấp cho các thiết bị di động).
-2. Tổ chức, doanh nghiệp gửi hồ sơ đề nghị đến cơ quan cấp giấy phép.
-Trong thời hạn 10 ngày làm việc, kể từ ngày nhận được hồ sơ hợp lệ, Sở Thông tin và Truyền thông thẩm định, cấp sửa đổi, bổ sung giấy phép đã cấp. Trường hợp từ chối có văn bản trả lời nêu rõ lý do.</t>
-  </si>
-  <si>
-    <t>cơ quan giải quyết hồ sơ đăng ký thu tín hiệu truyền hình nước ngoài trực tiếp từ vệ tinh</t>
+    <t>thông tin chung của quá trình sửa đổi bổ sung giấy chứng nhận đăng ký thu tín hiệu truyền hình nước ngoài trực tiếp từ vệ tinh</t>
   </si>
   <si>
     <t>lệ phí thông báo thay đổi cơ cấu tổ chức của doanh nghiệp cung cấp trò chơi điện tử G1 trên mạng do chia tách hợp nhất sáp nhập chuyển đổi công ty theo quy định của pháp luật về doanh nghiệp thay đổi phần vốn góp dẫn đến thay đổi thành viên góp vốn (hoặc cổ đông) có phần vốn góp từ 30% vốn điều lệ trở lên</t>
   </si>
   <si>
-    <t>điều kiện sửa đổi bổ sung giấy phép thiết lập trang thông tin điện tử tổng hợp</t>
+    <t xml:space="preserve">hiệu lực của giấy chứng nhận thiết lập trang thông tin điện tử tổng hợp </t>
+  </si>
+  <si>
+    <t>1. Tổ chức có nhu cầu lập hồ sơ gửi đến Sở Thông tin và Truyền thông tỉnh, thành phố trực thuộc Trung ương nơi lắp đặt thiết bị thu tín hiệu truyền hình nước ngoài trực tiếp từ vệ tinh;
+2. Trong thời hạn 10 (mười) ngày làm việc kể từ ngày nhận được hồ sơ hợp lệ, Sở Thông tin và Truyền thông tỉnh, thành phố trực thuộc Trung ương có trách nhiệm xét cấp đăng ký thu tín hiệu truyền hình nước ngoài trực tiếp từ vệ tinh. Trường hợp không cấp đăng ký, Sở Thông tin và Truyền thông có văn bản trả lời nêu rõ lý do.</t>
   </si>
   <si>
     <t>miễn phi lệ phí thông báo thay đổi cơ cấu tổ chức của doanh nghiệp cung cấp trò chơi điện tử G1 trên mạng do chia tách hợp nhất sáp nhập chuyển đổi công ty theo quy định của pháp luật về doanh nghiệp thay đổi phần vốn góp dẫn đến thay đổi thành viên góp vốn (hoặc cổ đông) có phần vốn góp từ 30% vốn điều lệ trở lên</t>
   </si>
   <si>
-    <t>kết quả giải quyết hồ sơ đăng ký thu tín hiệu truyền hình nước ngoài trực tiếp từ vệ tinh</t>
+    <t>1. Tổ chức có nhu cầu lập hồ sơ gửi đến Sở Thông tin và Truyền thông tỉnh, thành phố trực thuộc Trung ương nơi lắp đặt thiết bị thu tín hiệu truyền hình nước ngoài trực tiếp từ vệ tinh;</t>
+  </si>
+  <si>
+    <t>cách thức đăng ký sửa đổi bổ sung giấy phép thiết lập trang thông tin điện tử tổng hợp</t>
   </si>
   <si>
     <t>thông tin chung của quá trình thông báo thay đổi tên miền khi cung cấp dịch vụ trò chơi điện tử trên trang thông tin điện tử (trên Internet) kênh phân phối trò chơi (trên mạng viễn thông di động) thể loại trò chơi (G2 G3 G4) thay đổi địa chỉ trụ sở chính của doanh nghiệp cung cấp dịch vụ trò chơi điện tử G2 G3 G4 trên mạng</t>
   </si>
   <si>
-    <t>Giấy chứng nhận đăng ký thu tín hiệu truyền hình nước ngoài trực tiếp từ vệ tinh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hiệu lực của giấy chứng nhận thiết lập trang thông tin điện tử tổng hợp </t>
+    <t>hiệu lực của giấy chứng nhận đăng ký thu tín hiệu truyền hình nước ngoài trực tiếp từ vệ tinh sau khi sửa đổi</t>
   </si>
   <si>
     <t xml:space="preserve">    • Trong thời hạn 05 (năm) ngày làm việc, trước khi thay đổi tên miền khi cung cấp dịch vụ trò chơi điện tử trên trang thông tin điện tử (trên Internet), kênh phân phối trò chơi (trên mạng viễn thông di động); thể loại trò chơi (G2, G3, G4); thay đổi địa chỉ trụ sở chính của doanh nghiệp cung cấp dịch vụ trò chơi điện tử G2, G3, G4 trên mạng thì doanh nghiệp không phải thực hiện thủ tục sửa đổi, bổ sung giấy chứng nhận đăng ký cung cấp dịch vụ trò chơi điện tử nhưng phải thông báo bằng văn bản tới Sở Thông tin và Truyền thông.
     • Trong thời hạn 07 ngày kể từ ngày nhận được thông báo, Sở Thông tin và Truyền thông có trách nhiệm gửi giấy xác nhận cho doanh nghiệp.</t>
   </si>
   <si>
-    <t>căn cứ pháp lý của việc đăng ký thu tín hiệu truyền hình nước ngoài trực tiếp từ vệ tinh</t>
-  </si>
-  <si>
-    <t>điều kiện thông báo thay đổi tên miền khi cung cấp dịch vụ trò chơi điện tử trên trang thông tin điện tử (trên Internet) kênh phân phối trò chơi (trên mạng viễn thông di động) thể loại trò chơi (G2 G3 G4) thay đổi địa chỉ trụ sở chính của doanh nghiệp cung cấp dịch vụ trò chơi điện tử G2 G3 G4 trên mạng</t>
-  </si>
-  <si>
-    <t>- Nghị định số 06/2016/NĐ-CP ngày 18 tháng 01 năm 2016 của Chính phủ quy định quản lý, cung cấp và sử dụng dịch vụ phát thanh, truyền hình;
-- Thông tư số 19/2016/TT-BTTTT ngày 30 tháng 6 năm 2016 cùa Bộ Thông tin và Truyền thông quy định các biểu mẫu Tờ khai đăng ký, Đơn đề nghị cấp Giấy phép, Giấy Chứng nhận, Giấy phép và Báo cáo nghiệp vụ theo quy định tại Nghị định số 06/2016/NĐ-CP ngày 30/6/2016.</t>
-  </si>
-  <si>
-    <t>quy trình đăng ký thu tín hiệu truyền hình nước ngoài trực tiếp từ vệ tinh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Bộ phận tiếp nhận và trả kết quả:
-    • Xem xét thành phần hồ sơ: (0.5 ngày)
-+ Trường hợp hồ sơ đầy đủ, hợp lệ thì viết giấy biên nhận hồ sơ và hẹn ngày trả kết quả.
-+ Trường hợp hồ sơ thiếu hoặc không hợp lệ thì viết phiếu hướng dẫn làm lại hồ sơ.
-    • Điền vào phần mềm 1 cửa điện tử và chuyển hồ sơ đến Phòng Thông tin - Báo chí - Xuất bản.
-    • Ghi nhận vào Sổ tiếp nhận và trả kết quả và chuyển hô sơ cho phòng TTBCXB
-2. Chuyên viên phòng (08 ngày)
-    • Thẩm định tính pháp lý hồ sơ.
-    • Dự thảo văn bản trả lời trong trường hợp không đủ điều kiện cấp phép.
-    • Dự thảo giấy phép, cho số và vào sổ theo dõi cấp phép.
-3. Lãnh đạo phòng (04 ngày)
-    • Xem xét tính pháp lý hồ sơ
-    • Ký tắt giấy phép hoặc văn bản trả lời
-    • Chuyển hồ sơ đến lãnh đạo Sở
-4. Lãnh đạo sở (02 ngày)
-Xem xét, ký giấy phép hoặc ký văn bản trả lời 
-5. Văn thư văn phòng sở (0.5 ngày)
-Đóng dấu và chuyển đến Bộ phận tiếp nhận và trả kết quả
-6. Bộ phận tiếp nhận và trả kết quả 
-    • Trả kết quả cho cơ quan, tổ chức; yêu cầu người nhận ký tên vào sổ tiếp nhận và trả kết quả.
-    • Chuyển hồ sơ về Phòng TTBCXB lưu. 
-</t>
-  </si>
-  <si>
-    <t>cách thức thông báo thay đổi tên miền khi cung cấp dịch vụ trò chơi điện tử trên trang thông tin điện tử (trên Internet) kênh phân phối trò chơi (trên mạng viễn thông di động) thể loại trò chơi (G2 G3 G4) thay đổi địa chỉ trụ sở chính của doanh nghiệp cung cấp dịch vụ trò chơi điện tử G2 G3 G4 trên mạng</t>
-  </si>
-  <si>
-    <t>thời gian lưu hồ sơ đăng ký thu tín hiệu truyền hình nước ngoài trực tiếp từ vệ tinh</t>
-  </si>
-  <si>
-    <t>cách thức đăng ký sửa đổi bổ sung giấy phép thiết lập trang thông tin điện tử tổng hợp</t>
-  </si>
-  <si>
-    <t>hồ sơ thông báo thay đổi tên miền khi cung cấp dịch vụ trò chơi điện tử trên trang thông tin điện tử (trên Internet) kênh phân phối trò chơi (trên mạng viễn thông di động) thể loại trò chơi (G2 G3 G4) thay đổi địa chỉ trụ sở chính của doanh nghiệp cung cấp dịch vụ trò chơi điện tử G2 G3 G4 trên mạng</t>
-  </si>
-  <si>
-    <t>lê phí đăng ký thu tín hiệu truyền hình nước ngoài trực tiếp từ vệ tinh</t>
-  </si>
-  <si>
     <t>hồ sơ sửa đổi bổ sung giấy phép thiết lập trang thông tin điện tử tổng hợp</t>
-  </si>
-  <si>
-    <t>lê phí đăng ký thu tín hiệu truyền hình nước ngoài trực tiếp từ vệ tinh tiến hành thu theo quy định của Bộ tài chính nếu có</t>
   </si>
   <si>
     <t>1. Hồ sơ đề nghị sửa đổi, bổ sung giấy phép thiết lập trang thông tin điện tử tổng hợp bao gồm:
@@ -391,70 +395,81 @@
     2. Số lượng hồ sơ: 01 bộ.</t>
   </si>
   <si>
+    <t>điều kiện thông báo thay đổi tên miền khi cung cấp dịch vụ trò chơi điện tử trên trang thông tin điện tử (trên Internet) kênh phân phối trò chơi (trên mạng viễn thông di động) thể loại trò chơi (G2 G3 G4) thay đổi địa chỉ trụ sở chính của doanh nghiệp cung cấp dịch vụ trò chơi điện tử G2 G3 G4 trên mạng</t>
+  </si>
+  <si>
+    <t>cách thức đăng ký sửa đổi bổ sung giấy chứng nhận đăng ký thu tín hiệu truyền hình nước ngoài trực tiếp từ vệ tinh</t>
+  </si>
+  <si>
+    <t>thành phần hồ sơ sửa đổi bổ sung giấy phép thiết lập trang thông tin điện tử tổng hợp</t>
+  </si>
+  <si>
+    <t>hồ sơ sửa đổi, bổ sung giấy chứng nhận đăng ký thu tín hiệu truyền hình nước ngoài trực tiếp từ vệ tinh</t>
+  </si>
+  <si>
+    <t>thời gian giải quyết hồ sơ đăng ký sửa đổi bổ sung giấy phép thiết lập trang thông tin điện tử tổng hợp</t>
+  </si>
+  <si>
+    <t>1. Hồ sơ sửa đổi, bổ sung giấy chứng nhận đăng ký thu tín hiệu truyền hình nước ngoài trực tiếp từ vệ tinh được quy định như sau:
+a) Văn bản đề nghị nêu rõ nội dung cần sửa đổi, bổ sung; 
+b) Đối với trường hợp thay đổi địa điểm lắp đặt, cần có bản sao có chứng thực hoặc bản sao kèm bản gốc để đối chiếu văn bản chứng minh quyền sở hữu, thuê, mượn địa điểm mới.
+2. Số lượng hồ sơ:  01 bộ</t>
+  </si>
+  <si>
+    <t>cơ quan giải quyết hồ sơ đăng ký sửa đổi bổ sung giấy phép thiết lập trang thông tin điện tử tổng hợp</t>
+  </si>
+  <si>
+    <t>thành phần hồ sơ sửa đổi, bổ sung giấy chứng nhận đăng ký thu tín hiệu truyền hình nước ngoài trực tiếp từ vệ tinh</t>
+  </si>
+  <si>
+    <t>kết quả giải quyết hồ sơ đăng ký sửa đổi bổ sung giấy phép thiết lập trang thông tin điện tử tổng hợp</t>
+  </si>
+  <si>
+    <t>cách thức thông báo thay đổi tên miền khi cung cấp dịch vụ trò chơi điện tử trên trang thông tin điện tử (trên Internet) kênh phân phối trò chơi (trên mạng viễn thông di động) thể loại trò chơi (G2 G3 G4) thay đổi địa chỉ trụ sở chính của doanh nghiệp cung cấp dịch vụ trò chơi điện tử G2 G3 G4 trên mạng</t>
+  </si>
+  <si>
+    <t>thời gian giải quyết hồ sơ sửa đổi bổ sung giấy chứng nhận đăng ký thu tín hiệu truyền hình nước ngoài trực tiếp từ vệ tinh</t>
+  </si>
+  <si>
+    <t>căn cứ pháp lý của việc đăng ký sửa đổi bổ sung giấy phép thiết lập trang thông tin điện tử tổng hợp</t>
+  </si>
+  <si>
+    <t>cơ quan giải quyết hồ sơ sửa đổi bổ sung giấy chứng nhận đăng ký thu tín hiệu truyền hình nước ngoài trực tiếp từ vệ tinh</t>
+  </si>
+  <si>
+    <t>hồ sơ thông báo thay đổi tên miền khi cung cấp dịch vụ trò chơi điện tử trên trang thông tin điện tử (trên Internet) kênh phân phối trò chơi (trên mạng viễn thông di động) thể loại trò chơi (G2 G3 G4) thay đổi địa chỉ trụ sở chính của doanh nghiệp cung cấp dịch vụ trò chơi điện tử G2 G3 G4 trên mạng</t>
+  </si>
+  <si>
+    <t>quy trình đăng ký sửa đổi bổ sung giấy phép thiết lập trang thông tin điện tử tổng hợp</t>
+  </si>
+  <si>
     <t>1.Hồ sơ thông báo thay đổi thay đổi tên miền khi cung cấp dịch vụ trò chơi điện tử trên trang thông tin điện tử (trên Internet), kênh phân phối trò chơi (trên mạng viễn thông di động); thể loại trò chơi (G2, G3, G4); thay đổi địa chỉ trụ sở chính của doanh nghiệp cung cấp dịch vụ trò chơi điện tử G2, G3, G4 trên mạng bao gồm:
 - Thông báo thay đổi thay đổi tên miền khi cung cấp dịch vụ trò chơi điện tử trên trang thông tin điện tử (trên Internet), kênh phân phối trò chơi (trên mạng viễn thông di động); thể loại trò chơi (G2, G3, G4); thay đổi địa chỉ trụ sở chính của doanh nghiệp cung cấp dịch vụ trò chơi điện tử G2, G3, G4 trên mạng, nội dung bao gồm: Tên doanh nghiệp; số giấy chứng nhận đăng ký cung cấp dịch vụ trò chơi điện tử G2, G3, G4 trên mạng; những nội dung thay đổi.
 2. Số lượng hồ sơ: 01 bộ</t>
   </si>
   <si>
-    <t>thành phần hồ sơ sửa đổi bổ sung giấy phép thiết lập trang thông tin điện tử tổng hợp</t>
+    <t>kết quả giải quyết hồ sơ sửa đổi bổ sung giấy chứng nhận đăng ký thu tín hiệu truyền hình nước ngoài trực tiếp từ vệ tinh</t>
+  </si>
+  <si>
+    <t>căn cứ pháp lý của việc sửa đổi bổ sung giấy chứng nhận đăng ký thu tín hiệu truyền hình nước ngoài trực tiếp từ vệ tinh</t>
   </si>
   <si>
     <t>thành phần hồ sơ thông báo thay đổi tên miền khi cung cấp dịch vụ trò chơi điện tử trên trang thông tin điện tử (trên Internet) kênh phân phối trò chơi (trên mạng viễn thông di động) thể loại trò chơi (G2 G3 G4) thay đổi địa chỉ trụ sở chính của doanh nghiệp cung cấp dịch vụ trò chơi điện tử G2 G3 G4 trên mạng</t>
   </si>
   <si>
-    <t>thông tin chung của quá trình sửa đổi bổ sung giấy chứng nhận đăng ký thu tín hiệu truyền hình nước ngoài trực tiếp từ vệ tinh</t>
-  </si>
-  <si>
-    <t>1. Tổ chức có nhu cầu lập hồ sơ gửi đến Sở Thông tin và Truyền thông tỉnh, thành phố trực thuộc Trung ương nơi lắp đặt thiết bị thu tín hiệu truyền hình nước ngoài trực tiếp từ vệ tinh;
-2. Trong thời hạn 10 (mười) ngày làm việc kể từ ngày nhận được hồ sơ hợp lệ, Sở Thông tin và Truyền thông tỉnh, thành phố trực thuộc Trung ương có trách nhiệm xét cấp đăng ký thu tín hiệu truyền hình nước ngoài trực tiếp từ vệ tinh. Trường hợp không cấp đăng ký, Sở Thông tin và Truyền thông có văn bản trả lời nêu rõ lý do.</t>
-  </si>
-  <si>
-    <t>thời gian giải quyết hồ sơ đăng ký sửa đổi bổ sung giấy phép thiết lập trang thông tin điện tử tổng hợp</t>
+    <t>thời gian lưu hồ sơ đăng ký sửa đổi bổ sung giấy phép thiết lập trang thông tin điện tử tổng hợp</t>
+  </si>
+  <si>
+    <t>lệ phí đăng ký sửa đổi bổ sung giấy phép thiết lập trang thông tin điện tử tổng hợp</t>
+  </si>
+  <si>
+    <t>quy trình xử lý yêu cầu sửa đổi bổ sung giấy chứng nhận đăng ký thu tín hiệu truyền hình nước ngoài trực tiếp từ vệ tinh</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> lệ phí đăng ký sửa đổi bổ sung giấy phép trang thông tin điện tử tổng hợp là miễn phĩ</t>
   </si>
   <si>
     <t>thời gian giải quyết thông báo thay đổi tên miền khi cung cấp dịch vụ trò chơi điện tử trên trang thông tin điện tử (trên Internet) kênh phân phối trò chơi (trên mạng viễn thông di động) thể loại trò chơi (G2 G3 G4) thay đổi địa chỉ trụ sở chính của doanh nghiệp cung cấp dịch vụ trò chơi điện tử G2 G3 G4 trên mạng</t>
-  </si>
-  <si>
-    <t>cơ quan giải quyết thông báo thay đổi tên miền khi cung cấp dịch vụ trò chơi điện tử trên trang thông tin điện tử (trên Internet) kênh phân phối trò chơi (trên mạng viễn thông di động) thể loại trò chơi (G2 G3 G4) thay đổi địa chỉ trụ sở chính của doanh nghiệp cung cấp dịch vụ trò chơi điện tử G2 G3 G4 trên mạng</t>
-  </si>
-  <si>
-    <t>cơ quan giải quyết hồ sơ đăng ký sửa đổi bổ sung giấy phép thiết lập trang thông tin điện tử tổng hợp</t>
-  </si>
-  <si>
-    <t>1. Tổ chức có nhu cầu lập hồ sơ gửi đến Sở Thông tin và Truyền thông tỉnh, thành phố trực thuộc Trung ương nơi lắp đặt thiết bị thu tín hiệu truyền hình nước ngoài trực tiếp từ vệ tinh;</t>
-  </si>
-  <si>
-    <t>kết quả giải quyết thông báo thay đổi tên miền khi cung cấp dịch vụ trò chơi điện tử trên trang thông tin điện tử (trên Internet) kênh phân phối trò chơi (trên mạng viễn thông di động) thể loại trò chơi (G2 G3 G4) thay đổi địa chỉ trụ sở chính của doanh nghiệp cung cấp dịch vụ trò chơi điện tử G2 G3 G4 trên mạng</t>
-  </si>
-  <si>
-    <t>kết quả giải quyết hồ sơ đăng ký sửa đổi bổ sung giấy phép thiết lập trang thông tin điện tử tổng hợp</t>
-  </si>
-  <si>
-    <t>căn cứ pháp lý của việc đăng ký sửa đổi bổ sung giấy phép thiết lập trang thông tin điện tử tổng hợp</t>
-  </si>
-  <si>
-    <t>quy trình đăng ký sửa đổi bổ sung giấy phép thiết lập trang thông tin điện tử tổng hợp</t>
-  </si>
-  <si>
-    <t>căn cứ pháp lý của việc thông báo thay đổi tên miền khi cung cấp dịch vụ trò chơi điện tử trên trang thông tin điện tử (trên Internet) kênh phân phối trò chơi (trên mạng viễn thông di động) thể loại trò chơi (G2 G3 G4) thay đổi địa chỉ trụ sở chính của doanh nghiệp cung cấp dịch vụ trò chơi điện tử G2 G3 G4 trên mạng</t>
-  </si>
-  <si>
-    <t>thời gian lưu hồ sơ đăng ký sửa đổi bổ sung giấy phép thiết lập trang thông tin điện tử tổng hợp</t>
-  </si>
-  <si>
-    <t>quy trình thông báo thay đổi tên miền khi cung cấp dịch vụ trò chơi điện tử trên trang thông tin điện tử (trên Internet) kênh phân phối trò chơi (trên mạng viễn thông di động) thể loại trò chơi (G2 G3 G4) thay đổi địa chỉ trụ sở chính của doanh nghiệp cung cấp dịch vụ trò chơi điện tử G2 G3 G4 trên mạng</t>
-  </si>
-  <si>
-    <t>lệ phí đăng ký sửa đổi bổ sung giấy phép thiết lập trang thông tin điện tử tổng hợp</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> lệ phí đăng ký sửa đổi bổ sung giấy phép trang thông tin điện tử tổng hợp là miễn phĩ</t>
-  </si>
-  <si>
-    <t>thời gian lưu hồ sơ thông báo thay đổi tên miền khi cung cấp dịch vụ trò chơi điện tử trên trang thông tin điện tử (trên Internet) kênh phân phối trò chơi (trên mạng viễn thông di động) thể loại trò chơi (G2 G3 G4) thay đổi địa chỉ trụ sở chính của doanh nghiệp cung cấp dịch vụ trò chơi điện tử G2 G3 G4 trên mạng</t>
-  </si>
-  <si>
-    <t>hiệu lực của giấy chứng nhận đăng ký thu tín hiệu truyền hình nước ngoài trực tiếp từ vệ tinh sau khi sửa đổi</t>
   </si>
   <si>
     <t>thông tin chung của quá trình gia hạn giấy phép thiết lâp trang thông tin điện tử tổng hợp</t>
@@ -466,35 +481,34 @@
 </t>
   </si>
   <si>
-    <t>lệ phí thông báo thay đổi tên miền khi cung cấp dịch vụ trò chơi điện tử trên trang thông tin điện tử (trên Internet) kênh phân phối trò chơi (trên mạng viễn thông di động) thể loại trò chơi (G2 G3 G4) thay đổi địa chỉ trụ sở chính của doanh nghiệp cung cấp dịch vụ trò chơi điện tử G2 G3 G4 trên mạng</t>
+    <t>cơ quan giải quyết thông báo thay đổi tên miền khi cung cấp dịch vụ trò chơi điện tử trên trang thông tin điện tử (trên Internet) kênh phân phối trò chơi (trên mạng viễn thông di động) thể loại trò chơi (G2 G3 G4) thay đổi địa chỉ trụ sở chính của doanh nghiệp cung cấp dịch vụ trò chơi điện tử G2 G3 G4 trên mạng</t>
+  </si>
+  <si>
+    <t>thời gian lưu hồ sơ sửa đổi bổ sung giấy chứng nhận đăng ký thu tín hiệu truyền hình nước ngoài trực tiếp từ vệ tinh</t>
   </si>
   <si>
     <t>điều kiện gia hạn giấy phép thiết lập trang thông tin điện tử tổng hợp</t>
   </si>
   <si>
-    <t>miễn phi lệ phí thông báo thay đổi tên miền khi cung cấp dịch vụ trò chơi điện tử trên trang thông tin điện tử (trên Internet) kênh phân phối trò chơi (trên mạng viễn thông di động) thể loại trò chơi (G2 G3 G4) thay đổi địa chỉ trụ sở chính của doanh nghiệp cung cấp dịch vụ trò chơi điện tử G2 G3 G4 trên mạng</t>
-  </si>
-  <si>
-    <t>thông tin chung của quá trình thông báo thay đổi cơ cấu tổ chức của doanh nghiệp cung cấp dịch vụ trò chơi điện tử G2 G3 G4 trên mạng do chia tách hợp nhất sáp nhập chuyển đổi công ty theo quy định của pháp luật về doanh nghiệp thay đổi phần vốn góp dẫn đến thay đổi thành viên góp vốn (hoặc cổ đông) có phần vốn góp từ 30% vốn điều lệ trở lên</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    • Các doanh nghiệp đã được cấp giấy chứng nhận đăng ký cung cấp dịch vụ trò chơi điện tử G2, G3, G4 khi có sự thay đổi cơ cấu tổ chức của doanh nghiệp cung cấp dịch vụ trò chơi điện tử G2, G3, G4 trên mạng do chia, tách, hợp nhất, sáp nhập, chuyển đổi công ty theo quy định của pháp luật về doanh nghiệp; thay đổi phần vốn góp dẫn đến thay đổi thành viên góp vốn (hoặc cổ đông) có phần vốn góp từ 30% vốn điều lệ trở lên phải thông báo bằng văn bản tới Sở Thông tin và Truyền thông trong thời hạn 05 (năm) ngày làm việc kể từ ngày có quyết định thay đổi.
-    • Trong thời hạn 07 ngày kể từ ngày nhận được thông báo, Sở Thông tin và Truyền thông có trách nhiệm gửi giấy xác nhận cho doanh nghiệp.</t>
-  </si>
-  <si>
-    <t>cách thức đăng ký sửa đổi bổ sung giấy chứng nhận đăng ký thu tín hiệu truyền hình nước ngoài trực tiếp từ vệ tinh</t>
-  </si>
-  <si>
-    <t>điều kiện thông báo thay đổi cơ cấu tổ chức của doanh nghiệp cung cấp dịch vụ trò chơi điện tử G2 G3 G4 trên mạng do chia tách hợp nhất sáp nhập chuyển đổi công ty theo quy định của pháp luật về doanh nghiệp thay đổi phần vốn góp dẫn đến thay đổi thành viên góp vốn (hoặc cổ đông) có phần vốn góp từ 30% vốn điều lệ trở lên</t>
+    <t>kết quả giải quyết thông báo thay đổi tên miền khi cung cấp dịch vụ trò chơi điện tử trên trang thông tin điện tử (trên Internet) kênh phân phối trò chơi (trên mạng viễn thông di động) thể loại trò chơi (G2 G3 G4) thay đổi địa chỉ trụ sở chính của doanh nghiệp cung cấp dịch vụ trò chơi điện tử G2 G3 G4 trên mạng</t>
+  </si>
+  <si>
+    <t>lệ phí sửa đổi bổ sung giấy chứng nhận đăng ký thu tín hiệu truyền hình nước ngoài trực tiếp từ vệ tinh</t>
+  </si>
+  <si>
+    <t>lệ phí sửa đổi bổ sung giấy chứng nhận đăng ký thu tín hiệu truyền hình nước ngoài trực tiếp từ vệ tinh được thu theo quy định của bộ tài chính nếu có</t>
+  </si>
+  <si>
+    <t>căn cứ pháp lý của việc thông báo thay đổi tên miền khi cung cấp dịch vụ trò chơi điện tử trên trang thông tin điện tử (trên Internet) kênh phân phối trò chơi (trên mạng viễn thông di động) thể loại trò chơi (G2 G3 G4) thay đổi địa chỉ trụ sở chính của doanh nghiệp cung cấp dịch vụ trò chơi điện tử G2 G3 G4 trên mạng</t>
+  </si>
+  <si>
+    <t>quy trình thông báo thay đổi tên miền khi cung cấp dịch vụ trò chơi điện tử trên trang thông tin điện tử (trên Internet) kênh phân phối trò chơi (trên mạng viễn thông di động) thể loại trò chơi (G2 G3 G4) thay đổi địa chỉ trụ sở chính của doanh nghiệp cung cấp dịch vụ trò chơi điện tử G2 G3 G4 trên mạng</t>
   </si>
   <si>
     <t>cách thức gia hạn giấy phép thiết lập trang thông tin điện tử tổng hợp</t>
   </si>
   <si>
     <t>hồ sơ gia hạn giấy phép thiết lập trang thông tin điện tử tổng hợp</t>
-  </si>
-  <si>
-    <t>hồ sơ sửa đổi, bổ sung giấy chứng nhận đăng ký thu tín hiệu truyền hình nước ngoài trực tiếp từ vệ tinh</t>
   </si>
   <si>
     <t>1. Hồ sơ đề nghị gia hạn giấy phép thiết lập trang thông tin điện tử tổng hợp bao gồm:
@@ -502,31 +516,63 @@
     2. Số lượng hồ sơ: 01 bộ.</t>
   </si>
   <si>
-    <t>1. Hồ sơ sửa đổi, bổ sung giấy chứng nhận đăng ký thu tín hiệu truyền hình nước ngoài trực tiếp từ vệ tinh được quy định như sau:
-a) Văn bản đề nghị nêu rõ nội dung cần sửa đổi, bổ sung; 
-b) Đối với trường hợp thay đổi địa điểm lắp đặt, cần có bản sao có chứng thực hoặc bản sao kèm bản gốc để đối chiếu văn bản chứng minh quyền sở hữu, thuê, mượn địa điểm mới.
-2. Số lượng hồ sơ:  01 bộ</t>
+    <t>thời gian lưu hồ sơ thông báo thay đổi tên miền khi cung cấp dịch vụ trò chơi điện tử trên trang thông tin điện tử (trên Internet) kênh phân phối trò chơi (trên mạng viễn thông di động) thể loại trò chơi (G2 G3 G4) thay đổi địa chỉ trụ sở chính của doanh nghiệp cung cấp dịch vụ trò chơi điện tử G2 G3 G4 trên mạng</t>
   </si>
   <si>
     <t>thành phần hồ sơ gia hạn giấy phép thiết lập trang thông tin điện tử tổng hợp</t>
   </si>
   <si>
+    <t>lệ phí thông báo thay đổi tên miền khi cung cấp dịch vụ trò chơi điện tử trên trang thông tin điện tử (trên Internet) kênh phân phối trò chơi (trên mạng viễn thông di động) thể loại trò chơi (G2 G3 G4) thay đổi địa chỉ trụ sở chính của doanh nghiệp cung cấp dịch vụ trò chơi điện tử G2 G3 G4 trên mạng</t>
+  </si>
+  <si>
     <t>thời gian giải quyết hồ sơ gia hạn giấy phép thiết lập trang thông tin điện tử tổng hợp</t>
   </si>
   <si>
-    <t>thành phần hồ sơ sửa đổi, bổ sung giấy chứng nhận đăng ký thu tín hiệu truyền hình nước ngoài trực tiếp từ vệ tinh</t>
+    <t>miễn phi lệ phí thông báo thay đổi tên miền khi cung cấp dịch vụ trò chơi điện tử trên trang thông tin điện tử (trên Internet) kênh phân phối trò chơi (trên mạng viễn thông di động) thể loại trò chơi (G2 G3 G4) thay đổi địa chỉ trụ sở chính của doanh nghiệp cung cấp dịch vụ trò chơi điện tử G2 G3 G4 trên mạng</t>
+  </si>
+  <si>
+    <t>cơ quan giải quyết hồ sơ gia hạn giấy phép thiết lập trang thông tin điện tử tổng hợp</t>
+  </si>
+  <si>
+    <t>thông tin chung của quá trình thông báo thay đổi cơ cấu tổ chức của doanh nghiệp cung cấp dịch vụ trò chơi điện tử G2 G3 G4 trên mạng do chia tách hợp nhất sáp nhập chuyển đổi công ty theo quy định của pháp luật về doanh nghiệp thay đổi phần vốn góp dẫn đến thay đổi thành viên góp vốn (hoặc cổ đông) có phần vốn góp từ 30% vốn điều lệ trở lên</t>
+  </si>
+  <si>
+    <t>kết quả giải quyết hồ sơ gia hạn giấy phép thiết lập trang thông tin điện tử tổng hợp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    • Các doanh nghiệp đã được cấp giấy chứng nhận đăng ký cung cấp dịch vụ trò chơi điện tử G2, G3, G4 khi có sự thay đổi cơ cấu tổ chức của doanh nghiệp cung cấp dịch vụ trò chơi điện tử G2, G3, G4 trên mạng do chia, tách, hợp nhất, sáp nhập, chuyển đổi công ty theo quy định của pháp luật về doanh nghiệp; thay đổi phần vốn góp dẫn đến thay đổi thành viên góp vốn (hoặc cổ đông) có phần vốn góp từ 30% vốn điều lệ trở lên phải thông báo bằng văn bản tới Sở Thông tin và Truyền thông trong thời hạn 05 (năm) ngày làm việc kể từ ngày có quyết định thay đổi.
+    • Trong thời hạn 07 ngày kể từ ngày nhận được thông báo, Sở Thông tin và Truyền thông có trách nhiệm gửi giấy xác nhận cho doanh nghiệp.</t>
+  </si>
+  <si>
+    <t>căn cứ pháp lý của việc gia hạn giấy phép thiết lập trang thông tin điện tử tổng hợp</t>
+  </si>
+  <si>
+    <t>điều kiện thông báo thay đổi cơ cấu tổ chức của doanh nghiệp cung cấp dịch vụ trò chơi điện tử G2 G3 G4 trên mạng do chia tách hợp nhất sáp nhập chuyển đổi công ty theo quy định của pháp luật về doanh nghiệp thay đổi phần vốn góp dẫn đến thay đổi thành viên góp vốn (hoặc cổ đông) có phần vốn góp từ 30% vốn điều lệ trở lên</t>
+  </si>
+  <si>
+    <t>quy trình gia hạn giấy phép thiết lập trang thông tin điện tử tổng hợp</t>
+  </si>
+  <si>
+    <t>thời gian lưu hồ sơ gia hạn giấy phép thiết lập trang thông tin điện tử tổng hợp</t>
   </si>
   <si>
     <t>cách thức thông báo thay đổi cơ cấu tổ chức của doanh nghiệp cung cấp dịch vụ trò chơi điện tử G2 G3 G4 trên mạng do chia tách hợp nhất sáp nhập chuyển đổi công ty theo quy định của pháp luật về doanh nghiệp thay đổi phần vốn góp dẫn đến thay đổi thành viên góp vốn (hoặc cổ đông) có phần vốn góp từ 30% vốn điều lệ trở lên</t>
   </si>
   <si>
-    <t>cơ quan giải quyết hồ sơ gia hạn giấy phép thiết lập trang thông tin điện tử tổng hợp</t>
+    <t>lệ phí gia hạn giấy phép thiết lập trang thông tin điện tử tổng hợp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">miễn phi lệ phí gia hạn giấy phép trang thông tin điện tử tổng hợp </t>
+  </si>
+  <si>
+    <t>thông tin chung của quá trình cấp lại giấy phép thiết lâp trang thông tin điện tử tổng hợp</t>
   </si>
   <si>
     <t>hồ sơ thông báo thay đổi cơ cấu tổ chức của doanh nghiệp cung cấp dịch vụ trò chơi điện tử G2 G3 G4 trên mạng do chia tách hợp nhất sáp nhập chuyển đổi công ty theo quy định của pháp luật về doanh nghiệp thay đổi phần vốn góp dẫn đến thay đổi thành viên góp vốn (hoặc cổ đông) có phần vốn góp từ 30% vốn điều lệ trở lên</t>
   </si>
   <si>
-    <t>kết quả giải quyết hồ sơ gia hạn giấy phép thiết lập trang thông tin điện tử tổng hợp</t>
+    <t xml:space="preserve">    • Trường hợp giấy phép thiết lập trang thông tin điện tử tổng hợp bị mất hoặc bị hư hỏng không còn sử dụng được, tổ chức, doanh nghiệp có giấy phép gửi hồ sơ đề nghị cấp lại giấy phép đến Sở Thông tin và Truyền thông.
+    • Trong thời hạn 10 (mười) ngày làm việc kể từ ngày nhận được hồ sơ đề nghị, Sở Thông tin và Truyền thông xem xét, cấp giấy phép. Trong trường hợp từ chối sẽ có văn bản trả lời nêu rõ lý do.</t>
   </si>
   <si>
     <t>1. Hồ sơ thông báo thay đổi cơ cấu tổ chức của doanh nghiệp cung cấp dịch vụ trò chơi điện tử G2, G3, G4 trên mạng do chia, tách, hợp nhất, sáp nhập, chuyển đổi công ty theo quy định của pháp luật về doanh nghiệp; phần vốn góp dẫn đến thay đổi thành viên góp vốn (hoặc cổ đông) có phần vốn góp từ 30% vốn điều lệ trở lên của doanh nghiệp đã được cấp giấy chứng nhận đăng ký cung cấp dịch vụ trò chơi điện tử G2, G3, G4 bao gồm:
@@ -534,68 +580,25 @@
 2. Số lượng hồ sơ: 01 bộ</t>
   </si>
   <si>
+    <t>điều kiện cấp lại giấy phép thiết lập trang thông tin điện tử tổng hợp</t>
+  </si>
+  <si>
     <t>thành phần hồ sơ thông báo thay đổi cơ cấu tổ chức của doanh nghiệp cung cấp dịch vụ trò chơi điện tử G2 G3 G4 trên mạng do chia tách hợp nhất sáp nhập chuyển đổi công ty theo quy định của pháp luật về doanh nghiệp thay đổi phần vốn góp dẫn đến thay đổi thành viên góp vốn (hoặc cổ đông) có phần vốn góp từ 30% vốn điều lệ trở lên</t>
   </si>
   <si>
-    <t>căn cứ pháp lý của việc gia hạn giấy phép thiết lập trang thông tin điện tử tổng hợp</t>
-  </si>
-  <si>
-    <t>quy trình gia hạn giấy phép thiết lập trang thông tin điện tử tổng hợp</t>
-  </si>
-  <si>
     <t>thời gian giải quyết thông báo thay đổi cơ cấu tổ chức của doanh nghiệp cung cấp dịch vụ trò chơi điện tử G2 G3 G4 trên mạng do chia tách hợp nhất sáp nhập chuyển đổi công ty theo quy định của pháp luật về doanh nghiệp thay đổi phần vốn góp dẫn đến thay đổi thành viên góp vốn (hoặc cổ đông) có phần vốn góp từ 30% vốn điều lệ trở lên</t>
   </si>
   <si>
+    <t>cách thức cấp lại giấy phép thiết lập trang thông tin điện tử tổng hợp</t>
+  </si>
+  <si>
     <t>cơ quan giải quyết thông báo thay đổi cơ cấu tổ chức của doanh nghiệp cung cấp dịch vụ trò chơi điện tử G2 G3 G4 trên mạng do chia tách hợp nhất sáp nhập chuyển đổi công ty theo quy định của pháp luật về doanh nghiệp thay đổi phần vốn góp dẫn đến thay đổi thành viên góp vốn (hoặc cổ đông) có phần vốn góp từ 30% vốn điều lệ trở lên</t>
   </si>
   <si>
-    <t>thời gian lưu hồ sơ gia hạn giấy phép thiết lập trang thông tin điện tử tổng hợp</t>
+    <t>hồ sơ cấp lại giấy phép thiết lập trang thông tin điện tử tổng hợp</t>
   </si>
   <si>
     <t>kết quả giải quyết thông báo thay đổi cơ cấu tổ chức của doanh nghiệp cung cấp dịch vụ trò chơi điện tử G2 G3 G4 trên mạng do chia tách hợp nhất sáp nhập chuyển đổi công ty theo quy định của pháp luật về doanh nghiệp thay đổi phần vốn góp dẫn đến thay đổi thành viên góp vốn (hoặc cổ đông) có phần vốn góp từ 30% vốn điều lệ trở lên</t>
-  </si>
-  <si>
-    <t>lệ phí gia hạn giấy phép thiết lập trang thông tin điện tử tổng hợp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">miễn phi lệ phí gia hạn giấy phép trang thông tin điện tử tổng hợp </t>
-  </si>
-  <si>
-    <t>căn cứ pháp lý của việc thông báo thay đổi cơ cấu tổ chức của doanh nghiệp cung cấp dịch vụ trò chơi điện tử G2 G3 G4 trên mạng do chia tách hợp nhất sáp nhập chuyển đổi công ty theo quy định của pháp luật về doanh nghiệp thay đổi phần vốn góp dẫn đến thay đổi thành viên góp vốn (hoặc cổ đông) có phần vốn góp từ 30% vốn điều lệ trở lên</t>
-  </si>
-  <si>
-    <t>thông tin chung của quá trình cấp lại giấy phép thiết lâp trang thông tin điện tử tổng hợp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    • Trường hợp giấy phép thiết lập trang thông tin điện tử tổng hợp bị mất hoặc bị hư hỏng không còn sử dụng được, tổ chức, doanh nghiệp có giấy phép gửi hồ sơ đề nghị cấp lại giấy phép đến Sở Thông tin và Truyền thông.
-    • Trong thời hạn 10 (mười) ngày làm việc kể từ ngày nhận được hồ sơ đề nghị, Sở Thông tin và Truyền thông xem xét, cấp giấy phép. Trong trường hợp từ chối sẽ có văn bản trả lời nêu rõ lý do.</t>
-  </si>
-  <si>
-    <t>điều kiện cấp lại giấy phép thiết lập trang thông tin điện tử tổng hợp</t>
-  </si>
-  <si>
-    <t>thời gian giải quyết hồ sơ sửa đổi bổ sung giấy chứng nhận đăng ký thu tín hiệu truyền hình nước ngoài trực tiếp từ vệ tinh</t>
-  </si>
-  <si>
-    <t>quy trình thông báo thay đổi cơ cấu tổ chức của doanh nghiệp cung cấp dịch vụ trò chơi điện tử G2 G3 G4 trên mạng do chia tách hợp nhất sáp nhập chuyển đổi công ty theo quy định của pháp luật về doanh nghiệp thay đổi phần vốn góp dẫn đến thay đổi thành viên góp vốn (hoặc cổ đông) có phần vốn góp từ 30% vốn điều lệ trở lên</t>
-  </si>
-  <si>
-    <t>cơ quan giải quyết hồ sơ sửa đổi bổ sung giấy chứng nhận đăng ký thu tín hiệu truyền hình nước ngoài trực tiếp từ vệ tinh</t>
-  </si>
-  <si>
-    <t>thời gian lưu hồ sơ thông báo thay đổi cơ cấu tổ chức của doanh nghiệp cung cấp dịch vụ trò chơi điện tử G2 G3 G4 trên mạng do chia tách hợp nhất sáp nhập chuyển đổi công ty theo quy định của pháp luật về doanh nghiệp thay đổi phần vốn góp dẫn đến thay đổi thành viên góp vốn (hoặc cổ đông) có phần vốn góp từ 30% vốn điều lệ trở lên</t>
-  </si>
-  <si>
-    <t>cách thức cấp lại giấy phép thiết lập trang thông tin điện tử tổng hợp</t>
-  </si>
-  <si>
-    <t>kết quả giải quyết hồ sơ sửa đổi bổ sung giấy chứng nhận đăng ký thu tín hiệu truyền hình nước ngoài trực tiếp từ vệ tinh</t>
-  </si>
-  <si>
-    <t>hồ sơ cấp lại giấy phép thiết lập trang thông tin điện tử tổng hợp</t>
-  </si>
-  <si>
-    <t>lệ phí thông báo thay đổi cơ cấu tổ chức của doanh nghiệp cung cấp dịch vụ trò chơi điện tử G2 G3 G4 trên mạng do chia tách hợp nhất sáp nhập chuyển đổi công ty theo quy định của pháp luật về doanh nghiệp thay đổi phần vốn góp dẫn đến thay đổi thành viên góp vốn (hoặc cổ đông) có phần vốn góp từ 30% vốn điều lệ trở lên</t>
   </si>
   <si>
     <t xml:space="preserve">1. Hồ sơ đề nghị cấp lại giấy phép thiết lập trang thông tin điện tử tổng hợp bao gồm:
@@ -605,37 +608,40 @@
 </t>
   </si>
   <si>
+    <t>thành phần hồ sơ cấp lại giấy phép thiết lập trang thông tin điện tử tổng hợp</t>
+  </si>
+  <si>
+    <t>căn cứ pháp lý của việc thông báo thay đổi cơ cấu tổ chức của doanh nghiệp cung cấp dịch vụ trò chơi điện tử G2 G3 G4 trên mạng do chia tách hợp nhất sáp nhập chuyển đổi công ty theo quy định của pháp luật về doanh nghiệp thay đổi phần vốn góp dẫn đến thay đổi thành viên góp vốn (hoặc cổ đông) có phần vốn góp từ 30% vốn điều lệ trở lên</t>
+  </si>
+  <si>
+    <t>thời gian giải quyết hồ sơ cấp lại giấy phép thiết lập trang thông tin điện tử tổng hợp</t>
+  </si>
+  <si>
+    <t>cơ quan giải quyết hồ sơ cấp lại giấy phép thiết lập trang thông tin điện tử tổng hợp</t>
+  </si>
+  <si>
+    <t>quy trình thông báo thay đổi cơ cấu tổ chức của doanh nghiệp cung cấp dịch vụ trò chơi điện tử G2 G3 G4 trên mạng do chia tách hợp nhất sáp nhập chuyển đổi công ty theo quy định của pháp luật về doanh nghiệp thay đổi phần vốn góp dẫn đến thay đổi thành viên góp vốn (hoặc cổ đông) có phần vốn góp từ 30% vốn điều lệ trở lên</t>
+  </si>
+  <si>
+    <t>kết quả giải quyết hồ sơ cấp lại giấy phép thiết lập trang thông tin điện tử tổng hợp</t>
+  </si>
+  <si>
+    <t>căn cứ pháp lý của việc cấp lại giấy phép thiết lập trang thông tin điện tử tổng hợp</t>
+  </si>
+  <si>
+    <t>thời gian lưu hồ sơ thông báo thay đổi cơ cấu tổ chức của doanh nghiệp cung cấp dịch vụ trò chơi điện tử G2 G3 G4 trên mạng do chia tách hợp nhất sáp nhập chuyển đổi công ty theo quy định của pháp luật về doanh nghiệp thay đổi phần vốn góp dẫn đến thay đổi thành viên góp vốn (hoặc cổ đông) có phần vốn góp từ 30% vốn điều lệ trở lên</t>
+  </si>
+  <si>
+    <t>quy trình cấp lại giấy phép thiết lập trang thông tin điện tử tổng hợp</t>
+  </si>
+  <si>
+    <t>lệ phí thông báo thay đổi cơ cấu tổ chức của doanh nghiệp cung cấp dịch vụ trò chơi điện tử G2 G3 G4 trên mạng do chia tách hợp nhất sáp nhập chuyển đổi công ty theo quy định của pháp luật về doanh nghiệp thay đổi phần vốn góp dẫn đến thay đổi thành viên góp vốn (hoặc cổ đông) có phần vốn góp từ 30% vốn điều lệ trở lên</t>
+  </si>
+  <si>
     <t>miễn phi lệ phí thông báo thay đổi cơ cấu tổ chức của doanh nghiệp cung cấp dịch vụ trò chơi điện tử G2 G3 G4 trên mạng do chia tách hợp nhất sáp nhập chuyển đổi công ty theo quy định của pháp luật về doanh nghiệp thay đổi phần vốn góp dẫn đến thay đổi thành viên góp vốn (hoặc cổ đông) có phần vốn góp từ 30% vốn điều lệ trở lên</t>
   </si>
   <si>
-    <t>thành phần hồ sơ cấp lại giấy phép thiết lập trang thông tin điện tử tổng hợp</t>
-  </si>
-  <si>
-    <t>căn cứ pháp lý của việc sửa đổi bổ sung giấy chứng nhận đăng ký thu tín hiệu truyền hình nước ngoài trực tiếp từ vệ tinh</t>
-  </si>
-  <si>
-    <t>thời gian giải quyết hồ sơ cấp lại giấy phép thiết lập trang thông tin điện tử tổng hợp</t>
-  </si>
-  <si>
-    <t>cơ quan giải quyết hồ sơ cấp lại giấy phép thiết lập trang thông tin điện tử tổng hợp</t>
-  </si>
-  <si>
-    <t>kết quả giải quyết hồ sơ cấp lại giấy phép thiết lập trang thông tin điện tử tổng hợp</t>
-  </si>
-  <si>
-    <t>căn cứ pháp lý của việc cấp lại giấy phép thiết lập trang thông tin điện tử tổng hợp</t>
-  </si>
-  <si>
-    <t>quy trình xử lý yêu cầu sửa đổi bổ sung giấy chứng nhận đăng ký thu tín hiệu truyền hình nước ngoài trực tiếp từ vệ tinh</t>
-  </si>
-  <si>
-    <t>quy trình cấp lại giấy phép thiết lập trang thông tin điện tử tổng hợp</t>
-  </si>
-  <si>
     <t>thời gian cấp lại giấy phép thiết lập trang thông tin điện tử tổng hợp</t>
-  </si>
-  <si>
-    <t>thời gian lưu hồ sơ sửa đổi bổ sung giấy chứng nhận đăng ký thu tín hiệu truyền hình nước ngoài trực tiếp từ vệ tinh</t>
   </si>
   <si>
     <t>lệ phí cấp lại giấy phép thiết lập trang thông tin điện tử tổng hợp</t>
@@ -651,13 +657,7 @@
     • Trong thời hạn 07 ngày kể từ ngày nhận được thông báo, Sở Thông tin và Truyền thông có trách nhiệm gửi giấy xác nhận cho doanh nghiệp.</t>
   </si>
   <si>
-    <t>lệ phí sửa đổi bổ sung giấy chứng nhận đăng ký thu tín hiệu truyền hình nước ngoài trực tiếp từ vệ tinh</t>
-  </si>
-  <si>
     <t>điều kiện thông báo thay đổi chủ sở hữu doanh nghiệp được cấp giấy phép thiết lập trang thông tin điện tử tổng hợp</t>
-  </si>
-  <si>
-    <t>lệ phí sửa đổi bổ sung giấy chứng nhận đăng ký thu tín hiệu truyền hình nước ngoài trực tiếp từ vệ tinh được thu theo quy định của bộ tài chính nếu có</t>
   </si>
   <si>
     <t>cách thức thông báo thay đổi chủ sở hữu doanh nghiệp được cấp giấy phép thiết lập trang thông tin điện tử tổng hợp</t>
@@ -882,10 +882,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2">
@@ -901,7 +901,7 @@
         <v>9</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4">
@@ -910,90 +910,90 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16">
@@ -1001,15 +1001,15 @@
         <v>6</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18">
@@ -1018,82 +1018,82 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>110</v>
+        <v>82</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>112</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>115</v>
+        <v>86</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>112</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>134</v>
+        <v>89</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>136</v>
+        <v>91</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>139</v>
+        <v>95</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>145</v>
+        <v>96</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>153</v>
+        <v>106</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>158</v>
+        <v>109</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>160</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -1125,7 +1125,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>8</v>
@@ -1133,7 +1133,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>12</v>
@@ -1145,103 +1145,103 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>12</v>
@@ -1253,26 +1253,26 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22">
@@ -1280,23 +1280,23 @@
         <v>83</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25">
@@ -1304,52 +1304,52 @@
         <v>90</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>12</v>
@@ -1361,103 +1361,103 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>12</v>
@@ -1469,18 +1469,18 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="49">
@@ -1488,7 +1488,7 @@
         <v>144</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="50">
@@ -1496,7 +1496,7 @@
         <v>146</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="51">
@@ -1504,68 +1504,68 @@
         <v>147</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B58" s="1" t="s">
         <v>159</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>12</v>
@@ -1580,7 +1580,7 @@
         <v>161</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="62">
@@ -1604,7 +1604,7 @@
         <v>165</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
     </row>
     <row r="65">
@@ -1612,7 +1612,7 @@
         <v>166</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="66">
@@ -1620,7 +1620,7 @@
         <v>167</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="67">
@@ -1628,7 +1628,7 @@
         <v>168</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="68">
@@ -1636,7 +1636,7 @@
         <v>169</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
     </row>
     <row r="69">
@@ -1644,7 +1644,7 @@
         <v>170</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
     </row>
     <row r="70">
@@ -1660,7 +1660,7 @@
         <v>173</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="72">
@@ -1668,12 +1668,12 @@
         <v>174</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>12</v>
@@ -1688,7 +1688,7 @@
         <v>175</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="76">
@@ -1712,7 +1712,7 @@
         <v>178</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
     </row>
     <row r="79">
@@ -1720,7 +1720,7 @@
         <v>179</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="80">
@@ -1728,7 +1728,7 @@
         <v>180</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="81">
@@ -1736,7 +1736,7 @@
         <v>181</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="82">
@@ -1744,7 +1744,7 @@
         <v>182</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
     </row>
     <row r="83">
@@ -1752,7 +1752,7 @@
         <v>183</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
     </row>
     <row r="84">
@@ -1781,7 +1781,7 @@
     </row>
     <row r="87">
       <c r="A87" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B87" s="3" t="s">
         <v>12</v>
@@ -1796,7 +1796,7 @@
         <v>189</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="90">
@@ -1820,7 +1820,7 @@
         <v>193</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
     </row>
     <row r="93">
@@ -1828,7 +1828,7 @@
         <v>194</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="94">
@@ -1836,7 +1836,7 @@
         <v>195</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="95">
@@ -1844,7 +1844,7 @@
         <v>196</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="96">
@@ -1852,7 +1852,7 @@
         <v>197</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
     </row>
     <row r="97">
@@ -1860,7 +1860,7 @@
         <v>198</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
     </row>
     <row r="98">
@@ -1892,7 +1892,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>13</v>
@@ -1908,7 +1908,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>12</v>
@@ -1920,103 +1920,103 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>12</v>
@@ -2028,103 +2028,103 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>107</v>
+        <v>126</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>12</v>
@@ -2136,82 +2136,82 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
